--- a/04_memo/map00.xlsx
+++ b/04_memo/map00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\00_base_Sakamoto\data\TXT\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5182DC2F-6993-4303-B071-82A41C24DE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66915DF-8ED7-4D8A-933E-C0406E2B7A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -695,7 +695,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -787,6 +787,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1129,7 +1136,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1623,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1815,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -2223,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -2338,40 +2345,43 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A4:W19">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_memo/map00.xlsx
+++ b/04_memo/map00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\卒業制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66915DF-8ED7-4D8A-933E-C0406E2B7A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71959692-E1D5-42B6-8DF5-164F50314E4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -16,19 +16,6 @@
     <sheet name="Block" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -54,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +201,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +388,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -640,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,6 +650,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1136,7 +1143,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1190,22 +1197,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1217,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -1235,42 +1242,42 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1279,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1297,31 +1304,31 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
         <v>2</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
       <c r="U5" s="1">
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -1333,109 +1340,109 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1446,98 +1453,98 @@
       <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>2</v>
-      </c>
-      <c r="R7" s="1">
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
+      <c r="H8" s="4">
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>1</v>
@@ -1549,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1560,20 +1567,20 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1588,22 +1595,22 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
         <v>0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -1624,61 +1631,61 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
         <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -1690,27 +1697,27 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1720,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -1734,23 +1741,23 @@
       <c r="O11" s="1">
         <v>0</v>
       </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2</v>
+      </c>
+      <c r="R11" s="4">
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
         <v>0</v>
@@ -1765,54 +1772,54 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
         <v>0</v>
       </c>
       <c r="S12" s="1">
@@ -1822,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1"/>
     </row>
@@ -1837,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1846,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1870,25 +1877,25 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>3</v>
-      </c>
-      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -1900,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -1909,54 +1916,54 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
-        <v>3</v>
-      </c>
-      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
         <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>6</v>
-      </c>
-      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4">
         <v>0</v>
       </c>
       <c r="S14" s="1">
@@ -1966,39 +1973,39 @@
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="1">
@@ -2011,24 +2018,24 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>3</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
         <v>0</v>
       </c>
       <c r="S15" s="1">
@@ -2038,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
         <v>0</v>
@@ -2056,52 +2063,52 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
         <v>1</v>
@@ -2110,28 +2117,28 @@
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -2149,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -2176,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -2200,19 +2207,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -2224,13 +2231,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -2242,25 +2249,25 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1">
         <v>1</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="1"/>
     </row>
@@ -2269,13 +2276,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2284,22 +2291,22 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -2323,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1"/>
     </row>
@@ -2386,5 +2393,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/04_memo/map00.xlsx
+++ b/04_memo/map00.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71959692-E1D5-42B6-8DF5-164F50314E4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1055BA5-D349-4B2A-BF91-B0E86D0911C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
   <sheets>
     <sheet name="Block" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +209,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -641,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,7 +661,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,7 +712,209 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -1143,7 +1355,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1162,7 +1374,7 @@
       </c>
       <c r="B2" t="str">
         <f>COUNT(5:5)&amp;" "&amp;COUNT(A:A)</f>
-        <v>23 16</v>
+        <v>23 15</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -1197,19 +1409,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1218,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1233,31 +1445,31 @@
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
       </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
       </c>
       <c r="U4" s="1">
         <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
@@ -1265,13 +1477,13 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1279,152 +1491,152 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>9</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1442,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1451,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
       </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
         <v>0</v>
       </c>
       <c r="S7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="1">
-        <v>0</v>
+      <c r="T7" s="3">
+        <v>1</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
@@ -1475,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1"/>
     </row>
@@ -1484,12 +1696,12 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="1">
@@ -1498,14 +1710,14 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1525,11 +1737,11 @@
       <c r="O8" s="1">
         <v>1</v>
       </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
       </c>
       <c r="R8" s="4">
         <v>0</v>
@@ -1537,8 +1749,8 @@
       <c r="S8" s="1">
         <v>1</v>
       </c>
-      <c r="T8" s="1">
-        <v>0</v>
+      <c r="T8" s="3">
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
@@ -1556,12 +1768,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="1">
@@ -1570,14 +1782,14 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
         <v>1</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1597,10 +1809,10 @@
       <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>1</v>
       </c>
       <c r="R9" s="4">
@@ -1609,11 +1821,11 @@
       <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="3">
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
@@ -1625,16 +1837,16 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1642,7 +1854,7 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
       <c r="H10" s="4">
@@ -1669,10 +1881,10 @@
       <c r="O10" s="1">
         <v>1</v>
       </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>1</v>
       </c>
       <c r="R10" s="4">
@@ -1681,31 +1893,31 @@
       <c r="S10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="1">
-        <v>0</v>
+      <c r="T10" s="3">
+        <v>2</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="1">
@@ -1715,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -1744,8 +1956,8 @@
       <c r="P11" s="4">
         <v>0</v>
       </c>
-      <c r="Q11" s="3">
-        <v>2</v>
+      <c r="Q11" s="5">
+        <v>0</v>
       </c>
       <c r="R11" s="4">
         <v>0</v>
@@ -1753,17 +1965,17 @@
       <c r="S11" s="1">
         <v>1</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="3">
         <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>1</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1"/>
     </row>
@@ -1772,12 +1984,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="1">
@@ -1786,10 +1998,10 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="I12" s="1">
@@ -1816,7 +2028,7 @@
       <c r="P12" s="4">
         <v>0</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="5">
         <v>1</v>
       </c>
       <c r="R12" s="4">
@@ -1825,14 +2037,14 @@
       <c r="S12" s="1">
         <v>1</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="3">
         <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>1</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
         <v>1</v>
@@ -1841,7 +2053,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1849,7 +2061,7 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="1">
@@ -1858,10 +2070,10 @@
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
         <v>0</v>
       </c>
       <c r="I13" s="1">
@@ -1871,24 +2083,24 @@
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="4">
         <v>0</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="5">
         <v>1</v>
       </c>
       <c r="R13" s="4">
@@ -1897,7 +2109,7 @@
       <c r="S13" s="1">
         <v>0</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="3">
         <v>0</v>
       </c>
       <c r="U13" s="1">
@@ -1907,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -1916,12 +2128,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="1">
@@ -1930,10 +2142,10 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="I14" s="1">
@@ -1955,12 +2167,12 @@
         <v>1</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
         <v>1</v>
       </c>
       <c r="R14" s="4">
@@ -1969,14 +2181,14 @@
       <c r="S14" s="1">
         <v>1</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
         <v>1</v>
@@ -1988,28 +2200,28 @@
         <v>0</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2018,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -2032,23 +2244,23 @@
       <c r="P15" s="4">
         <v>0</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="5">
         <v>0</v>
       </c>
       <c r="R15" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S15" s="1">
         <v>1</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
@@ -2060,19 +2272,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2081,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2090,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
@@ -2099,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>1</v>
@@ -2113,14 +2325,14 @@
       <c r="S16" s="1">
         <v>1</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="3">
         <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>1</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
         <v>1</v>
@@ -2129,73 +2341,73 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>7</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>6</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
       <c r="S17" s="1">
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1"/>
     </row>
@@ -2204,19 +2416,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -2225,10 +2437,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2240,31 +2452,31 @@
         <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
-      <c r="R18" s="1">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1">
-        <v>1</v>
-      </c>
-      <c r="T18" s="1">
-        <v>2</v>
-      </c>
-      <c r="U18" s="1">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1</v>
+      </c>
+      <c r="U18" s="3">
         <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>1</v>
@@ -2272,86 +2484,102 @@
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
         <v>0</v>
       </c>
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
       <c r="X20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A4:W19">
+  <conditionalFormatting sqref="A12:K18 M4:W10 D19">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:L10 A11:K11">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:W18">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>

--- a/04_memo/map00.xlsx
+++ b/04_memo/map00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1055BA5-D349-4B2A-BF91-B0E86D0911C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DE69F-7777-49AB-B99C-A674B6846B60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1355,7 +1355,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
